--- a/CASProject/testdata/NewsHeading.xlsx
+++ b/CASProject/testdata/NewsHeading.xlsx
@@ -12,27 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Sustaining and extending our momentum</t>
+    <t>Cognizant’s five retail trends for 2024</t>
   </si>
   <si>
-    <t>Impact Awards 2024: "We have all earned this moment of celebration."</t>
+    <t>Commemorating India’s 75th Republic Day across Cognizant India offices</t>
   </si>
   <si>
-    <t>Insurers still weighing impacts of AI</t>
+    <t>Beyond the Desk: Kritika Tripathi</t>
   </si>
   <si>
-    <t>"Venture capitalist on the inside": Innovation in a tech services company</t>
+    <t>Black History Month: how art shapes culture and society</t>
   </si>
   <si>
-    <t>Sneak peek of the 2024 Impact Awards</t>
+    <t>InFocus – Jithin Paul</t>
   </si>
   <si>
-    <t>Listen to our Q4 earnings call on February 6</t>
-  </si>
-  <si>
-    <t>Cognizant named as a Top Employer in Europe for 10th consecutive year</t>
+    <t>Cognizant selected by Canberra Institute of Technology to implement Amazon's JWO technology</t>
   </si>
 </sst>
 </file>
@@ -77,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -113,11 +110,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CASProject/testdata/NewsHeading.xlsx
+++ b/CASProject/testdata/NewsHeading.xlsx
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Cognizant’s five retail trends for 2024</t>
+    <t>Cognizant inaugurates Bhubaneshwar Center: A new chapter begins!</t>
   </si>
   <si>
-    <t>Commemorating India’s 75th Republic Day across Cognizant India offices</t>
+    <t>Cognizant’s five retail trends for 2024</t>
   </si>
   <si>
     <t>Beyond the Desk: Kritika Tripathi</t>

--- a/CASProject/testdata/NewsHeading.xlsx
+++ b/CASProject/testdata/NewsHeading.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Cognizant inaugurates Bhubaneshwar Center: A new chapter begins!</t>
+    <t>Cognizant inaugurates Bhubaneswar center: A new chapter begins!</t>
   </si>
   <si>
     <t>Cognizant’s five retail trends for 2024</t>

--- a/CASProject/testdata/NewsHeading.xlsx
+++ b/CASProject/testdata/NewsHeading.xlsx
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Cognizant’s five retail trends for 2024</t>
+    <t>Cognizant inaugurates Bhubaneswar center: A new chapter begins!</t>
   </si>
   <si>
-    <t>Commemorating India’s 75th Republic Day across Cognizant India offices</t>
+    <t>Cognizant’s five retail trends for 2024</t>
   </si>
   <si>
     <t>Beyond the Desk: Kritika Tripathi</t>

--- a/CASProject/testdata/NewsHeading.xlsx
+++ b/CASProject/testdata/NewsHeading.xlsx
@@ -14,22 +14,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Cognizant inaugurates Bhubaneswar center: A new chapter begins!</t>
+    <t>Cognizant Coimbatore hosts 400 college students on International Women’s Day</t>
   </si>
   <si>
-    <t>Cognizant’s five retail trends for 2024</t>
+    <t>International Women's Day 2024: #InspireInclusion</t>
   </si>
   <si>
-    <t>Beyond the Desk: Kritika Tripathi</t>
+    <t>Cognizant elevates Iris Global to Excellence in Technological Innovation and Social Transformation using Pega</t>
   </si>
   <si>
-    <t>Black History Month: how art shapes culture and society</t>
+    <t>Beyond the Desk: Vasantha Lakshmi</t>
   </si>
   <si>
-    <t>InFocus – Jithin Paul</t>
+    <t>Cognizant launches an Advanced Artificial Intelligence Lab</t>
   </si>
   <si>
-    <t>Cognizant selected by Canberra Institute of Technology to implement Amazon's JWO technology</t>
+    <t>InFocus - Sumita Biswal</t>
   </si>
 </sst>
 </file>
